--- a/similarities/split_global/harmonic_similarity_timestamps_376.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_376.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:min', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:17.860000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:08.180000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=94.4']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:41.895260', '0:00:54.712675')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:01:01.800000', '0:01:09.440000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'F:maj6', 'C']]</t>
+          <t>['G', 'C:min', 'Bb/3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:maj6', 'Eb']]</t>
+          <t>['E:maj/B', 'A:min/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:36.368820', '0:00:43.729546')]</t>
+          <t>('0:01:48.913000', '0:01:54.379000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:25.130000')]</t>
+          <t>('0:00:25.160000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=36.36882']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=108.913</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=25.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:18.460000', '0:01:33.600000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=78.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:01:42.452811', '0:01:51.264784')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=102.452811</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['D:7', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C:maj', 'G/3', 'C:maj']]</t>
+          <t>['E:7', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:13.717755')]</t>
+          <t>('0:00:23.380000', '0:00:27.640000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:38.720000', '0:02:42.660000')]</t>
+          <t>('0:00:22.369000', '0:00:29.182000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=23.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=158.72']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=22.369</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'Bb:min/b3', 'F/5']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'F:min/b3', 'C']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:10.923673', '0:01:13.268888')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:23.413000', '0:00:30.988000')]</t>
+          <t>('0:00:46.120000', '0:00:48.300000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=70.923673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=23.413']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min', 'Ab']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:47.890000', '0:00:52.970000')]</t>
+          <t>('0:00:11.700000', '0:00:23.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.140000', '0:00:12.140000')]</t>
+          <t>('0:00:13.080000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=3.14']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:01.800000', '0:01:09.440000')]</t>
+          <t>('0:01:02.080000', '0:01:09.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:09.236303', '0:00:12.162018')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=62.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:01.980000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:07.800000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:01.300000', '0:00:02.670000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>isophonics_124</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
+          <t>('0:00:41.300000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:59.680000', '0:01:05.780000')]</t>
+          <t>('0:00:01.900000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=32.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=59.68']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
